--- a/output/1Y_P66_1VAL-D.xlsx
+++ b/output/1Y_P66_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>576.5251</v>
       </c>
-      <c r="G2" s="1">
-        <v>576.5251</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.3453</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E3" s="1">
+        <v>576.5251</v>
+      </c>
       <c r="F3" s="1">
         <v>559.3810999999999</v>
       </c>
-      <c r="G3" s="1">
-        <v>1135.9062</v>
-      </c>
       <c r="H3" s="1">
-        <v>20201.1822</v>
+        <v>10253.0368</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.6071</v>
+        <v>10253.0368</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.3453</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20201.1822</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E4" s="1">
+        <v>1135.9062</v>
+      </c>
       <c r="F4" s="1">
         <v>559.3717</v>
       </c>
-      <c r="G4" s="1">
-        <v>1695.2779</v>
-      </c>
       <c r="H4" s="1">
-        <v>30149.6692</v>
+        <v>20201.523</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6962</v>
+        <v>20201.523</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.6071</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30149.6692</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0017</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E5" s="1">
+        <v>1695.2779</v>
+      </c>
       <c r="F5" s="1">
         <v>549.8312</v>
       </c>
-      <c r="G5" s="1">
-        <v>2245.1091</v>
-      </c>
       <c r="H5" s="1">
-        <v>40620.9829</v>
+        <v>30672.832</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8165</v>
+        <v>30672.832</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6962</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40620.9829</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0117</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E6" s="1">
+        <v>2245.1091</v>
+      </c>
       <c r="F6" s="1">
         <v>567.756</v>
       </c>
-      <c r="G6" s="1">
-        <v>2812.8651</v>
-      </c>
       <c r="H6" s="1">
-        <v>49286.4592</v>
+        <v>39338.3521</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7755</v>
+        <v>39338.3521</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8165</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49286.4592</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0264</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.806</v>
       </c>
+      <c r="E7" s="1">
+        <v>2812.8651</v>
+      </c>
       <c r="F7" s="1">
         <v>561.6084</v>
       </c>
-      <c r="G7" s="1">
-        <v>3374.4735</v>
-      </c>
       <c r="H7" s="1">
-        <v>59774.4115</v>
+        <v>49826.248</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7806</v>
+        <v>49826.248</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7755</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59774.4115</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E8" s="1">
+        <v>3374.4735</v>
+      </c>
       <c r="F8" s="1">
         <v>544.8878999999999</v>
       </c>
-      <c r="G8" s="1">
-        <v>3919.3614</v>
-      </c>
       <c r="H8" s="1">
-        <v>71556.5646</v>
+        <v>61608.4379</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8601</v>
+        <v>61608.4379</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7806</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71556.5646</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0255</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E9" s="1">
+        <v>3919.3614</v>
+      </c>
       <c r="F9" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G9" s="1">
-        <v>4481.5603</v>
-      </c>
       <c r="H9" s="1">
-        <v>79301.6568</v>
+        <v>69353.4915</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8509</v>
+        <v>69353.4915</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8601</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79301.6568</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0276</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E10" s="1">
+        <v>4481.5603</v>
+      </c>
       <c r="F10" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G10" s="1">
-        <v>5033.2266</v>
-      </c>
       <c r="H10" s="1">
-        <v>90763.6712</v>
+        <v>80815.5279</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.8812</v>
+        <v>80815.5279</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8509</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90763.6712</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0164</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E11" s="1">
+        <v>5033.2266</v>
+      </c>
       <c r="F11" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G11" s="1">
-        <v>5592.4575</v>
-      </c>
       <c r="H11" s="1">
-        <v>99484.22659999999</v>
+        <v>89536.0673</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
+        <v>89536.0673</v>
+      </c>
+      <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
         <v>17.8812</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99484.22659999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0127</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,38 +1226,38 @@
       <c r="D12" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E12" s="1">
+        <v>5592.4575</v>
+      </c>
       <c r="F12" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G12" s="1">
-        <v>6151.3759</v>
-      </c>
       <c r="H12" s="1">
-        <v>109488.3394</v>
+        <v>99540.1511</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.8822</v>
+        <v>99540.1511</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8812</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109488.3394</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E13" s="1">
+        <v>6151.3759</v>
+      </c>
       <c r="F13" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G13" s="1">
-        <v>6766.6053</v>
-      </c>
       <c r="H13" s="1">
-        <v>109414.654</v>
+        <v>99466.5178</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7342</v>
+        <v>99466.5178</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.8822</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.5</v>
       </c>
-      <c r="L13" s="1">
-        <v>2768.1191</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7231.8809</v>
+        <v>2516.6059</v>
       </c>
       <c r="O13" s="1">
-        <v>2768.1191</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112182.7731</v>
+        <v>-7483.3941</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0611</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E14" s="1">
+        <v>6766.6053</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6766.6053</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6151.3759</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104034.5261</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>2516.6059</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7342</v>
+        <v>106551.132</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2563</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>104034.5261</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>106802.6453</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>106802.6453</v>
+        <v>94575.5588</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1259</v>
+        <v>-0.0266</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.3453</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>576.5251</v>
       </c>
       <c r="G2" s="1">
-        <v>576.5251</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.3453</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.8769</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>576.5251</v>
       </c>
       <c r="F3" s="1">
         <v>548.0687</v>
       </c>
       <c r="G3" s="1">
-        <v>1124.5937</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10253.0368</v>
       </c>
       <c r="I3" s="1">
-        <v>19797.7691</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.6044</v>
+        <v>10253.0368</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9797.7691</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.9945</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9797.7691</v>
       </c>
-      <c r="O3" s="1">
-        <v>202.2309</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20202.2309</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.8772</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1124.5937</v>
       </c>
       <c r="F4" s="1">
         <v>562.2684</v>
       </c>
       <c r="G4" s="1">
-        <v>1686.8622</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20000.3374</v>
       </c>
       <c r="I4" s="1">
-        <v>29849.554</v>
+        <v>202.2309</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6953</v>
+        <v>20202.5683</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19849.554</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.6504</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10051.7849</v>
       </c>
-      <c r="O4" s="1">
-        <v>150.446</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30150.446</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0017</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.1874</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1686.8622</v>
       </c>
       <c r="F5" s="1">
         <v>523.9254</v>
       </c>
       <c r="G5" s="1">
-        <v>2210.7875</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30520.5657</v>
       </c>
       <c r="I5" s="1">
-        <v>39378.3945</v>
+        <v>150.446</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8119</v>
+        <v>30671.0116</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29378.3945</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.416</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9528.8405</v>
       </c>
-      <c r="O5" s="1">
-        <v>621.6055</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40621.6055</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0117</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.6132</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2210.7875</v>
       </c>
       <c r="F6" s="1">
         <v>603.048</v>
       </c>
       <c r="G6" s="1">
-        <v>2813.8356</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49303.464</v>
+        <v>38736.9771</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>621.6055</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7693</v>
+        <v>39358.5826</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0931</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10621.6055</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49303.464</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.026</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.806</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2813.8356</v>
       </c>
       <c r="F7" s="1">
         <v>561.6084</v>
       </c>
       <c r="G7" s="1">
-        <v>3375.444</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>59791.6025</v>
+        <v>49843.439</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7754</v>
+        <v>49843.439</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7693</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59791.6025</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.3524</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3375.444</v>
       </c>
       <c r="F8" s="1">
         <v>458.6598</v>
       </c>
       <c r="G8" s="1">
-        <v>3834.1038</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61626.1564</v>
       </c>
       <c r="I8" s="1">
-        <v>68417.508</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8445</v>
+        <v>61626.1564</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58417.508</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3066</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8417.508</v>
       </c>
-      <c r="O8" s="1">
-        <v>1582.492</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71582.492</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0257</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.7873</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3834.1038</v>
       </c>
       <c r="F9" s="1">
         <v>651.1664</v>
       </c>
       <c r="G9" s="1">
-        <v>4485.2702</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>79367.30469999999</v>
+        <v>67844.85030000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>1582.492</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8362</v>
+        <v>69427.3422</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.2572</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11582.492</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79367.30469999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0272</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.1269</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4485.2702</v>
       </c>
       <c r="F10" s="1">
         <v>505.6076</v>
       </c>
       <c r="G10" s="1">
-        <v>4990.8778</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80882.4289</v>
       </c>
       <c r="I10" s="1">
-        <v>89165.09819999999</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.8656</v>
+        <v>80882.4289</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79165.09819999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.65</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9165.0982</v>
       </c>
-      <c r="O10" s="1">
-        <v>834.9018</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90834.90180000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0164</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.8817</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4990.8778</v>
       </c>
       <c r="F11" s="1">
         <v>605.9212</v>
       </c>
       <c r="G11" s="1">
-        <v>5596.799</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>99561.4578</v>
+        <v>88782.7249</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>834.9018</v>
       </c>
       <c r="J11" s="1">
-        <v>17.8674</v>
+        <v>89617.62669999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0329</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10834.9018</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99561.4578</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0126</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.8917</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5596.799</v>
       </c>
       <c r="F12" s="1">
         <v>558.9184</v>
       </c>
       <c r="G12" s="1">
-        <v>6155.7174</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>109565.6141</v>
+        <v>99617.4258</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.8696</v>
+        <v>99617.4258</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8674</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109565.6141</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.2541</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6155.7174</v>
       </c>
       <c r="F13" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6770.9468</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>109484.8555</v>
+        <v>99536.7193</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7228</v>
+        <v>99536.7193</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.8696</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.5</v>
       </c>
-      <c r="L13" s="1">
-        <v>2770.0728</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7229.9272</v>
+        <v>2518.5596</v>
       </c>
       <c r="O13" s="1">
-        <v>2770.0728</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112254.9283</v>
+        <v>-7481.4404</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0611</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>15.4549</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6770.9468</v>
       </c>
       <c r="F14" s="1">
         <v>-6770.9468</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104101.2757</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>2518.5596</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7228</v>
+        <v>106619.8352</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2459</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>104101.2757</v>
       </c>
-      <c r="O14" s="1">
-        <v>106871.3485</v>
-      </c>
-      <c r="P14" s="1">
-        <v>106871.3485</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1258</v>
+        <v>-0.0266</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.3453</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>576.5251</v>
       </c>
       <c r="G2" s="1">
-        <v>576.5251</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.3453</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.8769</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>576.5251</v>
       </c>
       <c r="F3" s="1">
         <v>550.8801999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1127.4052</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10253.0368</v>
       </c>
       <c r="I3" s="1">
-        <v>19848.0297</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.6051</v>
+        <v>10253.0368</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9848.029699999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.0817</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9848.029699999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>151.9703</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20201.9703</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.8772</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1127.4052</v>
       </c>
       <c r="F4" s="1">
         <v>567.9053</v>
       </c>
       <c r="G4" s="1">
-        <v>1695.3105</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20050.3382</v>
       </c>
       <c r="I4" s="1">
-        <v>30000.5863</v>
+        <v>151.9703</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6962</v>
+        <v>20202.3085</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000.5863</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.7404</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10152.5566</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0.5863</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30149.6637</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0017</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.1874</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1695.3105</v>
       </c>
       <c r="F5" s="1">
         <v>532.1133</v>
       </c>
       <c r="G5" s="1">
-        <v>2227.4238</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30673.4228</v>
       </c>
       <c r="I5" s="1">
-        <v>39678.343</v>
+        <v>-0.5863</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8136</v>
+        <v>30672.8365</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29678.343</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.5061</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9677.7567</v>
       </c>
-      <c r="O5" s="1">
-        <v>321.657</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40622.6582</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0118</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.6132</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2227.4238</v>
       </c>
       <c r="F6" s="1">
         <v>586.0183</v>
       </c>
       <c r="G6" s="1">
-        <v>2813.4421</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49296.5689</v>
+        <v>39028.474</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>321.657</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7718</v>
+        <v>39350.131</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.958</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10321.657</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49296.5689</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0262</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.806</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2813.4421</v>
       </c>
       <c r="F7" s="1">
         <v>561.6084</v>
       </c>
       <c r="G7" s="1">
-        <v>3375.0505</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>59784.632</v>
+        <v>49836.4685</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7775</v>
+        <v>49836.4685</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7718</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59784.632</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.3524</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3375.0505</v>
       </c>
       <c r="F8" s="1">
         <v>517.0465</v>
       </c>
       <c r="G8" s="1">
-        <v>3892.097</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61618.9719</v>
       </c>
       <c r="I8" s="1">
-        <v>69489.0448</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8539</v>
+        <v>61618.9719</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59489.0448</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.6261</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9489.0448</v>
       </c>
-      <c r="O8" s="1">
-        <v>510.9552</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71569.7491</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0256</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.7873</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3892.097</v>
       </c>
       <c r="F9" s="1">
         <v>590.9247</v>
       </c>
       <c r="G9" s="1">
-        <v>4483.0217</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>79327.5181</v>
+        <v>68871.04610000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>510.9552</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8451</v>
+        <v>69382.00139999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9852</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10510.9552</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79327.5181</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0275</v>
+        <v>-0.0312</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.1269</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4483.0217</v>
       </c>
       <c r="F10" s="1">
         <v>551.6663</v>
       </c>
       <c r="G10" s="1">
-        <v>5034.6881</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>90790.02619999999</v>
+        <v>80841.8829</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.876</v>
+        <v>80841.8829</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8451</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90790.02619999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0164</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.8817</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5034.6881</v>
       </c>
       <c r="F11" s="1">
         <v>559.2309</v>
       </c>
       <c r="G11" s="1">
-        <v>5593.919</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99510.2251</v>
+        <v>89562.0658</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.8766</v>
+        <v>89562.0658</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.876</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99510.2251</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0127</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,40 +2754,40 @@
         <v>17.8917</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5593.919</v>
       </c>
       <c r="F12" s="1">
         <v>558.9184</v>
       </c>
       <c r="G12" s="1">
-        <v>6152.8374</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>109514.3526</v>
+        <v>99566.1643</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.8779</v>
+        <v>99566.1643</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8766</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109514.3526</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -2822,43 +2807,43 @@
         <v>16.2541</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6152.8374</v>
       </c>
       <c r="F13" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6768.0668</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109438.2861</v>
+        <v>99490.1499</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7303</v>
+        <v>99490.1499</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.8779</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.5</v>
       </c>
-      <c r="L13" s="1">
-        <v>2768.7768</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7231.2232</v>
+        <v>2517.2636</v>
       </c>
       <c r="O13" s="1">
-        <v>2768.7768</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112207.0629</v>
+        <v>-7482.7364</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0611</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>15.4549</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6768.0668</v>
       </c>
       <c r="F14" s="1">
         <v>-6768.0668</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104056.9962</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>2517.2636</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7303</v>
+        <v>106574.2597</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2528</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>104056.9962</v>
       </c>
-      <c r="O14" s="1">
-        <v>106825.773</v>
-      </c>
-      <c r="P14" s="1">
-        <v>106825.773</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1259</v>
+        <v>-0.0266</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.3453</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>576.5251</v>
       </c>
       <c r="G2" s="1">
-        <v>576.5251</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.3453</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.8769</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>576.5251</v>
       </c>
       <c r="F3" s="1">
         <v>553.6917</v>
       </c>
       <c r="G3" s="1">
-        <v>1130.2167</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10253.0368</v>
       </c>
       <c r="I3" s="1">
-        <v>19898.2904</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.6057</v>
+        <v>10253.0368</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9898.2904</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.1689</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9898.2904</v>
       </c>
-      <c r="O3" s="1">
-        <v>101.7096</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20201.7096</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.8772</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1130.2167</v>
       </c>
       <c r="F4" s="1">
         <v>565.0611</v>
       </c>
       <c r="G4" s="1">
-        <v>1695.2778</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30149.6675</v>
+        <v>20100.3391</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>101.7096</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6962</v>
+        <v>20202.0487</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.6957</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10101.7096</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30149.6675</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0017</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.1874</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1695.2778</v>
       </c>
       <c r="F5" s="1">
         <v>548.8932</v>
       </c>
       <c r="G5" s="1">
-        <v>2244.171</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30672.8303</v>
       </c>
       <c r="I5" s="1">
-        <v>39982.9404</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8164</v>
+        <v>30672.8303</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29982.9404</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6862</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9982.940399999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>17.0596</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40621.0696</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0117</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.6132</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2244.171</v>
       </c>
       <c r="F6" s="1">
         <v>568.7246</v>
       </c>
       <c r="G6" s="1">
-        <v>2812.8956</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49286.9933</v>
+        <v>39321.9151</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>17.0596</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7753</v>
+        <v>39338.9747</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.824</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10017.0596</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49286.9933</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0264</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.806</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2812.8956</v>
       </c>
       <c r="F7" s="1">
         <v>561.6084</v>
       </c>
       <c r="G7" s="1">
-        <v>3374.504</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>59774.9515</v>
+        <v>49826.788</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7804</v>
+        <v>49826.788</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7753</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59774.9515</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.3524</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3374.504</v>
       </c>
       <c r="F8" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3919.3919</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>71557.1211</v>
+        <v>61608.9944</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8599</v>
+        <v>61608.9944</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7804</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71557.1211</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0255</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.7873</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3919.3919</v>
       </c>
       <c r="F9" s="1">
         <v>562.1989</v>
       </c>
       <c r="G9" s="1">
-        <v>4481.5907</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>79302.19620000001</v>
+        <v>69354.0309</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8508</v>
+        <v>69354.0309</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8599</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79302.19620000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0276</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.1269</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4481.5907</v>
       </c>
       <c r="F10" s="1">
         <v>551.6663</v>
       </c>
       <c r="G10" s="1">
-        <v>5033.257</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>90764.2209</v>
+        <v>80816.0776</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.8811</v>
+        <v>80816.0776</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8508</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90764.2209</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0164</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.8817</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5033.257</v>
       </c>
       <c r="F11" s="1">
         <v>559.2309</v>
       </c>
       <c r="G11" s="1">
-        <v>5592.488</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>99484.76880000001</v>
+        <v>89536.60950000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
+        <v>89536.60950000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
         <v>17.8811</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99484.76880000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0127</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,40 +3522,40 @@
         <v>17.8917</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5592.488</v>
       </c>
       <c r="F12" s="1">
         <v>558.9184</v>
       </c>
       <c r="G12" s="1">
-        <v>6151.4064</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>109488.882</v>
+        <v>99540.6937</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.8821</v>
+        <v>99540.6937</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8811</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109488.882</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -3596,43 +3575,43 @@
         <v>16.2541</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6151.4064</v>
       </c>
       <c r="F13" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6766.6358</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>109415.1469</v>
+        <v>99467.0107</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7341</v>
+        <v>99467.0107</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.8821</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.5</v>
       </c>
-      <c r="L13" s="1">
-        <v>2768.1329</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7231.8671</v>
+        <v>2516.6196</v>
       </c>
       <c r="O13" s="1">
-        <v>2768.1329</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112183.2797</v>
+        <v>-7483.3804</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0611</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>15.4549</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6766.6358</v>
       </c>
       <c r="F14" s="1">
         <v>-6766.6358</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104034.9948</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>2516.6196</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7341</v>
+        <v>106551.6144</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2562</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>104034.9948</v>
       </c>
-      <c r="O14" s="1">
-        <v>106803.1277</v>
-      </c>
-      <c r="P14" s="1">
-        <v>106803.1277</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1259</v>
+        <v>-0.0266</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.3453</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>576.5251</v>
       </c>
       <c r="G2" s="1">
-        <v>576.5251</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1127</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.3453</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1127</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.8769</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>576.5251</v>
       </c>
       <c r="F3" s="1">
         <v>556.5031</v>
       </c>
       <c r="G3" s="1">
-        <v>1133.0282</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10253.0368</v>
       </c>
       <c r="I3" s="1">
-        <v>19948.551</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.6064</v>
+        <v>10253.0368</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9948.550999999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.2561</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9948.550999999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>51.449</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20201.449</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.8772</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1133.0282</v>
       </c>
       <c r="F4" s="1">
         <v>562.2496</v>
       </c>
       <c r="G4" s="1">
-        <v>1695.2778</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30149.6684</v>
+        <v>20150.3399</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>51.449</v>
       </c>
       <c r="J4" s="1">
-        <v>17.6962</v>
+        <v>20201.7889</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.6518</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10051.449</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30149.6684</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0017</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.1874</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1695.2778</v>
       </c>
       <c r="F5" s="1">
         <v>549.8312</v>
       </c>
       <c r="G5" s="1">
-        <v>2245.109</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40620.982</v>
+        <v>30672.8311</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.8165</v>
+        <v>30672.8311</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6962</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40620.982</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0117</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.6132</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2245.109</v>
       </c>
       <c r="F6" s="1">
         <v>567.756</v>
       </c>
       <c r="G6" s="1">
-        <v>2812.865</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49286.4583</v>
+        <v>39338.3512</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.7755</v>
+        <v>39338.3512</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8165</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49286.4583</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0264</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.806</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2812.865</v>
       </c>
       <c r="F7" s="1">
         <v>561.6084</v>
       </c>
       <c r="G7" s="1">
-        <v>3374.4735</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>59774.4107</v>
+        <v>49826.2471</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.7806</v>
+        <v>49826.2471</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.7755</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>59774.4107</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.008200000000000001</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.3524</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3374.4735</v>
       </c>
       <c r="F8" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>3919.3613</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>71556.5637</v>
+        <v>61608.437</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8601</v>
+        <v>61608.437</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.7806</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71556.5637</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0255</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.7873</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3919.3613</v>
       </c>
       <c r="F9" s="1">
         <v>562.1989</v>
       </c>
       <c r="G9" s="1">
-        <v>4481.5602</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>79301.6559</v>
+        <v>69353.49069999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8509</v>
+        <v>69353.49069999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8601</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79301.6559</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0276</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.1269</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4481.5602</v>
       </c>
       <c r="F10" s="1">
         <v>551.6663</v>
       </c>
       <c r="G10" s="1">
-        <v>5033.2265</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>90763.6704</v>
+        <v>80815.527</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.8812</v>
+        <v>80815.527</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.8509</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>90763.6704</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0164</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.8817</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5033.2265</v>
       </c>
       <c r="F11" s="1">
         <v>559.2309</v>
       </c>
       <c r="G11" s="1">
-        <v>5592.4575</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>99484.2257</v>
+        <v>89536.0664</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
+        <v>89536.0664</v>
+      </c>
+      <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
         <v>17.8812</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99484.2257</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0127</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,40 +4290,40 @@
         <v>17.8917</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5592.4575</v>
       </c>
       <c r="F12" s="1">
         <v>558.9184</v>
       </c>
       <c r="G12" s="1">
-        <v>6151.3758</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>109488.3385</v>
+        <v>99540.15029999999</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.8822</v>
+        <v>99540.15029999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8812</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109488.3385</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -4370,43 +4343,43 @@
         <v>16.2541</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6151.3758</v>
       </c>
       <c r="F13" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6766.6052</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>109414.6532</v>
+        <v>99466.51700000001</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7342</v>
+        <v>99466.51700000001</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>17.8822</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.5</v>
       </c>
-      <c r="L13" s="1">
-        <v>2768.1191</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-7231.8809</v>
+        <v>2516.6059</v>
       </c>
       <c r="O13" s="1">
-        <v>2768.1191</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>112182.7723</v>
+        <v>-7483.3941</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0611</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>15.4549</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6766.6052</v>
       </c>
       <c r="F14" s="1">
         <v>-6766.6052</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104034.5254</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>2516.6059</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7342</v>
+        <v>106551.1312</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.2563</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>104034.5254</v>
       </c>
-      <c r="O14" s="1">
-        <v>106802.6445</v>
-      </c>
-      <c r="P14" s="1">
-        <v>106802.6445</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1259</v>
+        <v>-0.0266</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.4132</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.7342</v>
+        <v>16.2563</v>
       </c>
       <c r="D3" s="1">
-        <v>17.7228</v>
+        <v>16.2459</v>
       </c>
       <c r="E3" s="1">
-        <v>17.7303</v>
+        <v>16.2528</v>
       </c>
       <c r="F3" s="1">
-        <v>17.7341</v>
+        <v>16.2562</v>
       </c>
       <c r="G3" s="1">
-        <v>17.7342</v>
+        <v>16.2563</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1073</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1808</v>
+        <v>-0.1005</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1797</v>
+        <v>-0.0992</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1804</v>
+        <v>-0.1</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1808</v>
+        <v>-0.1005</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1808</v>
+        <v>-0.1005</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.121</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1406</v>
+        <v>0.1132</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1406</v>
+        <v>0.1128</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1406</v>
+        <v>0.113</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1406</v>
+        <v>0.1132</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1406</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.055</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.4306</v>
+        <v>-1.0674</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.423</v>
+        <v>-1.0596</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.4277</v>
+        <v>-1.0643</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.4305</v>
+        <v>-1.0673</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.4306</v>
+        <v>-1.0674</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1972</v>
+        <v>-0.3331</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.197</v>
+        <v>-0.2006</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1971</v>
+        <v>-0.2007</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1972</v>
+        <v>-0.2008</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1972</v>
+        <v>-0.2008</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2768.1191</v>
+        <v>2516.6059</v>
       </c>
       <c r="D8" s="1">
-        <v>2770.0728</v>
+        <v>2518.5596</v>
       </c>
       <c r="E8" s="1">
-        <v>2768.7768</v>
+        <v>2517.2636</v>
       </c>
       <c r="F8" s="1">
-        <v>2768.1329</v>
+        <v>2516.6196</v>
       </c>
       <c r="G8" s="1">
-        <v>2768.1191</v>
+        <v>2516.6059</v>
       </c>
     </row>
   </sheetData>
